--- a/ESPN sports website/IPL/Lucknow Super Giants/Deepak Hooda.xlsx
+++ b/ESPN sports website/IPL/Lucknow Super Giants/Deepak Hooda.xlsx
@@ -445,31 +445,31 @@
         <v>Deepak Hooda</v>
       </c>
       <c r="C2" t="str">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D2" t="str">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2" t="str">
-        <v>84.61</v>
+        <v>173.07</v>
       </c>
       <c r="H2" t="str">
-        <v>Delhi Capitals</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I2" t="str">
-        <v>DY Patil</v>
+        <v>Kolkata</v>
       </c>
       <c r="J2" t="str">
-        <v>April 07, 2022</v>
+        <v>May 25, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Super Giants won by 6 wickets (with 2 balls remaining)</v>
+        <v>RCB won by 14 runs</v>
       </c>
     </row>
     <row r="3">
@@ -483,28 +483,28 @@
         <v>13</v>
       </c>
       <c r="D3" t="str">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E3" t="str">
         <v>1</v>
       </c>
       <c r="F3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="str">
-        <v>92.85</v>
+        <v>162.50</v>
       </c>
       <c r="H3" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I3" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J3" t="str">
-        <v>April 19, 2022</v>
+        <v>March 31, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>RCB won by 18 runs</v>
+        <v>Super Giants won by 6 wickets (with 3 balls remaining)</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>Deepak Hooda</v>
       </c>
       <c r="C4" t="str">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D4" t="str">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E4" t="str">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>134.14</v>
+        <v>104.16</v>
       </c>
       <c r="H4" t="str">
-        <v>Gujarat Titans</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I4" t="str">
         <v>Wankhede</v>
       </c>
       <c r="J4" t="str">
-        <v>March 28, 2022</v>
+        <v>April 10, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Titans won by 5 wickets (with 2 balls remaining)</v>
+        <v>Royals won by 3 runs</v>
       </c>
     </row>
     <row r="5">
@@ -550,31 +550,31 @@
         <v>Deepak Hooda</v>
       </c>
       <c r="C5" t="str">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D5" t="str">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" t="str">
-        <v>104.16</v>
+        <v>151.85</v>
       </c>
       <c r="H5" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Kolkata Knight Riders</v>
       </c>
       <c r="I5" t="str">
-        <v>Wankhede</v>
+        <v>Pune</v>
       </c>
       <c r="J5" t="str">
-        <v>April 10, 2022</v>
+        <v>May 07, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Royals won by 3 runs</v>
+        <v>Super Giants won by 75 runs</v>
       </c>
     </row>
     <row r="6">
@@ -585,31 +585,31 @@
         <v>Deepak Hooda</v>
       </c>
       <c r="C6" t="str">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D6" t="str">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E6" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="str">
-        <v>162.50</v>
+        <v>151.28</v>
       </c>
       <c r="H6" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I6" t="str">
         <v>Brabourne</v>
       </c>
       <c r="J6" t="str">
-        <v>March 31, 2022</v>
+        <v>May 15, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>Super Giants won by 6 wickets (with 3 balls remaining)</v>
+        <v>Royals won by 24 runs</v>
       </c>
     </row>
     <row r="7">
@@ -620,31 +620,31 @@
         <v>Deepak Hooda</v>
       </c>
       <c r="C7" t="str">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="D7" t="str">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E7" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="str">
-        <v>152.94</v>
+        <v>84.61</v>
       </c>
       <c r="H7" t="str">
         <v>Delhi Capitals</v>
       </c>
       <c r="I7" t="str">
-        <v>Wankhede</v>
+        <v>DY Patil</v>
       </c>
       <c r="J7" t="str">
-        <v>May 01, 2022</v>
+        <v>April 07, 2022</v>
       </c>
       <c r="K7" t="str">
-        <v>Super Giants won by 6 runs</v>
+        <v>Super Giants won by 6 wickets (with 2 balls remaining)</v>
       </c>
     </row>
     <row r="8">
@@ -655,31 +655,31 @@
         <v>Deepak Hooda</v>
       </c>
       <c r="C8" t="str">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" t="str">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E8" t="str">
         <v>1</v>
       </c>
       <c r="F8" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="str">
-        <v>187.50</v>
+        <v>92.85</v>
       </c>
       <c r="H8" t="str">
-        <v>Mumbai Indians</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I8" t="str">
-        <v>Brabourne</v>
+        <v>DY Patil</v>
       </c>
       <c r="J8" t="str">
-        <v>April 16, 2022</v>
+        <v>April 19, 2022</v>
       </c>
       <c r="K8" t="str">
-        <v>Super Giants won by 18 runs</v>
+        <v>RCB won by 18 runs</v>
       </c>
     </row>
     <row r="9">
@@ -725,31 +725,31 @@
         <v>Deepak Hooda</v>
       </c>
       <c r="C10" t="str">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D10" t="str">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" t="str">
         <v>1</v>
       </c>
       <c r="F10" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="str">
-        <v>111.11</v>
+        <v>187.50</v>
       </c>
       <c r="H10" t="str">
         <v>Mumbai Indians</v>
       </c>
       <c r="I10" t="str">
-        <v>Wankhede</v>
+        <v>Brabourne</v>
       </c>
       <c r="J10" t="str">
-        <v>April 24, 2022</v>
+        <v>April 16, 2022</v>
       </c>
       <c r="K10" t="str">
-        <v>Super Giants won by 36 runs</v>
+        <v>Super Giants won by 18 runs</v>
       </c>
     </row>
     <row r="11">
@@ -760,31 +760,31 @@
         <v>Deepak Hooda</v>
       </c>
       <c r="C11" t="str">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D11" t="str">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" t="str">
         <v>1</v>
       </c>
       <c r="F11" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11" t="str">
-        <v>173.07</v>
+        <v>121.42</v>
       </c>
       <c r="H11" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I11" t="str">
-        <v>Kolkata</v>
+        <v>Pune</v>
       </c>
       <c r="J11" t="str">
-        <v>May 25, 2022</v>
+        <v>April 29, 2022</v>
       </c>
       <c r="K11" t="str">
-        <v>RCB won by 14 runs</v>
+        <v>Super Giants won by 20 runs</v>
       </c>
     </row>
     <row r="12">
@@ -795,31 +795,31 @@
         <v>Deepak Hooda</v>
       </c>
       <c r="C12" t="str">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D12" t="str">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E12" t="str">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F12" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="str">
-        <v>103.84</v>
+        <v>152.94</v>
       </c>
       <c r="H12" t="str">
-        <v>Gujarat Titans</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I12" t="str">
-        <v>Pune</v>
+        <v>Wankhede</v>
       </c>
       <c r="J12" t="str">
-        <v>May 10, 2022</v>
+        <v>May 01, 2022</v>
       </c>
       <c r="K12" t="str">
-        <v>Titans won by 62 runs</v>
+        <v>Super Giants won by 6 runs</v>
       </c>
     </row>
     <row r="13">
@@ -830,31 +830,31 @@
         <v>Deepak Hooda</v>
       </c>
       <c r="C13" t="str">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D13" t="str">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E13" t="str">
         <v>1</v>
       </c>
       <c r="F13" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="str">
-        <v>121.42</v>
+        <v>111.11</v>
       </c>
       <c r="H13" t="str">
-        <v>Punjab Kings</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I13" t="str">
-        <v>Pune</v>
+        <v>Wankhede</v>
       </c>
       <c r="J13" t="str">
-        <v>April 29, 2022</v>
+        <v>April 24, 2022</v>
       </c>
       <c r="K13" t="str">
-        <v>Super Giants won by 20 runs</v>
+        <v>Super Giants won by 36 runs</v>
       </c>
     </row>
     <row r="14">
@@ -865,31 +865,31 @@
         <v>Deepak Hooda</v>
       </c>
       <c r="C14" t="str">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D14" t="str">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" t="str">
-        <v>151.85</v>
+        <v>103.84</v>
       </c>
       <c r="H14" t="str">
-        <v>Kolkata Knight Riders</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I14" t="str">
         <v>Pune</v>
       </c>
       <c r="J14" t="str">
-        <v>May 07, 2022</v>
+        <v>May 10, 2022</v>
       </c>
       <c r="K14" t="str">
-        <v>Super Giants won by 75 runs</v>
+        <v>Titans won by 62 runs</v>
       </c>
     </row>
     <row r="15">
@@ -900,31 +900,31 @@
         <v>Deepak Hooda</v>
       </c>
       <c r="C15" t="str">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D15" t="str">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" t="str">
         <v>2</v>
       </c>
       <c r="G15" t="str">
-        <v>151.28</v>
+        <v>134.14</v>
       </c>
       <c r="H15" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I15" t="str">
-        <v>Brabourne</v>
+        <v>Wankhede</v>
       </c>
       <c r="J15" t="str">
-        <v>May 15, 2022</v>
+        <v>March 28, 2022</v>
       </c>
       <c r="K15" t="str">
-        <v>Royals won by 24 runs</v>
+        <v>Titans won by 5 wickets (with 2 balls remaining)</v>
       </c>
     </row>
   </sheetData>
